--- a/data/output/cluster_metrics_dbscan.xlsx
+++ b/data/output/cluster_metrics_dbscan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,25 +472,29 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3698858439812254</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3204520461302064</v>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>qa_fix_dispersion_mean</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2.17e-13</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ants</t>
+          <t>GatesS</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -512,7 +516,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Clouds</t>
+          <t>GatesT</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -526,94 +530,6 @@
         </is>
       </c>
       <c r="F4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Waterclocks</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Lizards</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Tastes</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Lodgepoles</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>

--- a/data/output/cluster_metrics_dbscan.xlsx
+++ b/data/output/cluster_metrics_dbscan.xlsx
@@ -482,12 +482,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>qa_fix_dispersion_mean</t>
+          <t>coldread_stopwatch_wpm</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.17e-13</t>
+          <t>nan</t>
         </is>
       </c>
     </row>

--- a/data/output/cluster_metrics_dbscan.xlsx
+++ b/data/output/cluster_metrics_dbscan.xlsx
@@ -472,22 +472,18 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3698858439812254</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.3204520461302064</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>coldread_stopwatch_wpm</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>

--- a/data/output/cluster_metrics_dbscan.xlsx
+++ b/data/output/cluster_metrics_dbscan.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
